--- a/downloaded_files/MCNS326_Tutorial-35419.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35419.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>KYRILLOS LOTFY SAMIR LOTFY METWASHLH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مايفى عماد مملوك فخرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maive Emad Mamlouk Fakhry</x:t>
   </x:si>
   <x:si>
     <x:t>1230106</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -996,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.539587963</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45912.5967007292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.5967007292</x:v>
+        <x:v>45912.0005776968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.0005776968</x:v>
+        <x:v>45907.4951275463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4951275463</x:v>
+        <x:v>45907.4197487269</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS326_Tutorial-35419.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35419.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Yasmin baher kamel hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>1230292</x:t>
@@ -308,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1211,7 +1202,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4951275463</x:v>
+        <x:v>45907.4197487269</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1228,38 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS326_Tutorial-35419.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35419.xlsx
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1220219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أندرو وليد جرجس كيرلس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Walid Girgis</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240001</x:t>
   </x:si>
   <x:si>
@@ -175,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Yasmin baher kamel hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>1230292</x:t>
@@ -690,7 +690,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4622113426</x:v>
+        <x:v>45914.4284489931</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -722,7 +722,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.4284489931</x:v>
+        <x:v>45907.4169731481</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -754,7 +754,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4169731481</x:v>
+        <x:v>45907.4216175926</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -786,7 +786,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4216175926</x:v>
+        <x:v>45907.4205327199</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -818,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4205327199</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -850,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4208704861</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4208704861</x:v>
+        <x:v>45907.415941088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.415941088</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45912.5967007292</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.5967007292</x:v>
+        <x:v>45912.0005776968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.0005776968</x:v>
+        <x:v>45927.5386738773</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/MCNS326_Tutorial-35419.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35419.xlsx
@@ -141,6 +141,15 @@
     <x:t>Mohamed Yousry</x:t>
   </x:si>
   <x:si>
+    <x:t>1230253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان كريم محمد أحمد زايد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230304</x:t>
   </x:si>
   <x:si>
@@ -166,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Yasmin baher kamel hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>1230292</x:t>
@@ -1074,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45927.6643246875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.5967007292</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.0005776968</x:v>
+        <x:v>45912.5967007292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.5386738773</x:v>
+        <x:v>45912.0005776968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
